--- a/pred_ohlcv/54_21/2019-10-25 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>19075.6696</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>18157.5247</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>20754.1993</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>24386.3128</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>24386.3128</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24596.3155</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>25803.2509</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>25710.782</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>29142.0274</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>28521.9891</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>28590.2772</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>28137.4942</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>29691.53960299684</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>35053.7205</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>37934.1523</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>43383.53350000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>45310.3608</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>44827.97437574627</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>43464.55037574627</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>42541.99497574627</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>42540.82667574628</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>51037.98837574628</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>49255.83705056574</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>33865.08967682172</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>35764.73291089112</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>35704.43471089112</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>35640.89081089113</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>34000.55531089113</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>31825.41271089112</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>32006.40871089112</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>33559.29721089112</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-4404.301320345812</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-4788.011520345812</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-5566.669320345813</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-5310.279220345813</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-4268.690960207715</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-4477.814760207715</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-4477.814660207715</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-4463.814660207715</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-4438.814660207715</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4522.847560207715</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4359.851760207715</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-4348.851760207715</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4386.904260207715</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4748.599360207715</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-4748.599360207715</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-4613.632260207715</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-4993.339660207715</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-5476.790160207715</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-4973.249260207715</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-5592.818540119136</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-5598.818856675008</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-5581.122256675008</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-5585.829456675007</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-6384.444956675007</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-5390.951991972853</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-5391.951991972853</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-5455.941691972853</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-5455.941691972853</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-5275.123491972852</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-5285.947691972852</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-5285.947691972852</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-3377.14379063655</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2452.76940936345</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>2880.322789274871</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>13421.20738927487</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>13421.20738927487</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>12551.95698927487</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>11240.13588927487</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>11119.02778927487</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>43162.5415309639</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>36143.5161309639</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>36143.5161309639</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>35227.6242309639</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>39130.4839309639</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>38209.4471309639</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>38222.14713096389</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>38329.28053096389</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>38454.12793096389</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>38462.56693096389</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>37888.34973096389</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>37586.50663096389</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>36613.49743096389</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>36473.68303096389</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>36506.55823096389</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>32277.90833096389</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>32242.62823096389</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>32242.62823096389</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>32242.62823096389</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>32242.62823096389</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>32480.88513096389</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>32418.99030613292</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>26456.89410613292</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>26247.23080613292</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>26241.13650613292</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>26399.53890613292</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>26399.53890613292</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>26399.53890613292</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>26360.01440613292</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>19075.6696</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>18157.5247</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>20754.1993</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>24386.3128</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>24386.3128</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24596.3155</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>25803.2509</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>25710.782</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>29142.0274</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>28521.9891</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>28590.2772</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>28137.4942</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>29691.53960299684</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>35053.7205</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>35042.8448</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>37934.1523</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>43383.53350000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>45310.3608</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>44827.97437574627</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>43464.55037574627</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>42541.99497574627</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>42416.82667574628</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>42540.82667574628</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>51037.98837574628</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>49255.83705056574</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>33865.08967682172</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>35764.73291089112</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>35704.43471089112</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>35640.89081089113</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>34000.55531089113</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>31825.41271089112</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>32006.40871089112</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>33559.29721089112</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1854.985220345813</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2354.985220345813</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2284.821920345812</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-5115.209420345813</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-4941.819820345812</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-4404.301320345812</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-4002.088520345812</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-4788.011520345812</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-4789.011520345812</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-5560.506820345812</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-5577.926020345813</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-5566.669320345813</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-5310.279220345813</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-5301.298620345813</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-4984.541920345813</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-5227.688820345813</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-5467.699320345813</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-7323.357620345813</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-7256.107620345813</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-8069.134320345814</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-7922.000720345814</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-8278.300620345814</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-7939.093420345814</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-7667.937420345814</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3222.838920345814</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3222.838920345814</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3233.485320345814</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-2087.804820345814</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1854.208220345814</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1854.208220345814</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1863.166320345814</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1863.066320345814</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-2097.747420345814</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1813.250820345814</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3938.250820345814</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2417.228720345814</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-4829.165220345813</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-4081.254820345814</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-4652.274720345814</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-4647.845920345814</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-4332.007620345814</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4350.756820345814</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-4350.756820345814</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-4672.14383932508</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-4722.05163932508</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-4722.05163932508</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-4268.690960207715</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-4280.690960207715</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-4477.814760207715</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-4477.814660207715</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-4463.814660207715</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4363.851760207715</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-4385.904260207715</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4997.866560207715</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-4572.252740119136</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-5580.176256675008</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-5580.176256675008</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-5585.829456675007</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-6558.444956675007</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-5391.951991972853</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-5404.951991972853</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-5229.185291972853</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-5759.775491972852</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-5501.141891972852</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-5501.141891972852</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-5661.141891972852</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-5661.141891972852</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1638.080490636549</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1912.940390636549</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1835.565290636549</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1933.945790636549</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1845.945790636549</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1845.945790636549</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1804.873690636549</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2014.016390636549</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1731.737890636549</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2739.425390636549</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2730.225390636549</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2730.225390636549</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-3248.225390636549</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-3217.46109063655</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-3124.56209063655</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-3446.75209063655</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>4836.245389274871</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>13421.20738927487</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>12551.95698927487</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>11240.13588927487</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>11119.02778927487</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>41885.7152309639</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>43162.5415309639</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>43162.5415309639</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>36143.5161309639</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>36143.5161309639</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>35227.6242309639</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>38245.6220309639</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>39083.7570309639</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>39130.4839309639</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>38209.4471309639</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>38222.14713096389</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>38205.33553096389</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>38329.28053096389</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>38659.17173096389</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>38454.12793096389</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>38462.56693096389</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>37888.34973096389</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>37586.50663096389</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>37164.08623096389</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>36613.49743096389</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>36473.68303096389</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>36506.55823096389</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>32277.90833096389</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>32242.62823096389</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>32480.88513096389</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>32491.93030613292</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>32418.99030613292</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>26456.89410613292</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>26247.23080613292</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
